--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados7.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Aceptados7.xlsx
@@ -591,10 +591,10 @@
         <v>0.031329</v>
       </c>
       <c r="P2">
-        <v>-13840</v>
+        <v>37</v>
       </c>
       <c r="Q2">
-        <v>-2067</v>
+        <v>5</v>
       </c>
       <c r="R2">
         <v>-3467</v>
@@ -714,10 +714,10 @@
         <v>0.026392</v>
       </c>
       <c r="P3">
-        <v>-13183</v>
+        <v>36</v>
       </c>
       <c r="Q3">
-        <v>-808</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <v>-4689</v>
@@ -832,10 +832,10 @@
         <v>0.020246</v>
       </c>
       <c r="P4">
-        <v>-16624</v>
+        <v>45</v>
       </c>
       <c r="Q4">
-        <v>-6050</v>
+        <v>16</v>
       </c>
       <c r="R4">
         <v>-3757</v>
@@ -955,10 +955,10 @@
         <v>0.00733</v>
       </c>
       <c r="P5">
-        <v>-11425</v>
+        <v>31</v>
       </c>
       <c r="Q5">
-        <v>-2705</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <v>-5368</v>
@@ -1078,10 +1078,10 @@
         <v>0.005002</v>
       </c>
       <c r="P6">
-        <v>-12666</v>
+        <v>34</v>
       </c>
       <c r="Q6">
-        <v>-384</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>-1699</v>
@@ -1201,10 +1201,10 @@
         <v>0.022625</v>
       </c>
       <c r="P7">
-        <v>-13746</v>
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>-818</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <v>-3556</v>
